--- a/outputs/COVID-19_Trial-1_Stage-2_duplicate-primary_Decoded_JYI.xlsx
+++ b/outputs/COVID-19_Trial-1_Stage-2_duplicate-primary_Decoded_JYI.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="90">
   <si>
     <t xml:space="preserve">Exp 1 </t>
   </si>
@@ -76,6 +76,120 @@
   </si>
   <si>
     <t>exhaustive</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>11,13,15,40,</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>6,13,27,36,</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>N</t>
@@ -237,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -259,11 +373,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -297,6 +425,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,7 +765,7 @@
     <col min="4" max="4" width="13" bestFit="true" customWidth="true"/>
     <col min="6" max="7" width="10.5" bestFit="true" customWidth="true"/>
     <col min="11" max="11" width="8.625" style="7" customWidth="true"/>
-    <col min="12" max="12" width="17.3984375" style="7" customWidth="true"/>
+    <col min="12" max="12" width="15.22265625" style="7" customWidth="true"/>
     <col min="13" max="13" width="11.125" style="8" customWidth="true"/>
     <col min="14" max="14" width="11.625" style="8" customWidth="true"/>
     <col min="10" max="10" width="6.32421875" customWidth="true"/>
@@ -702,14 +844,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K3" s="11">
+        <v>1.5161583725667333e-13</v>
+      </c>
+      <c r="L3" s="11">
         <v>2.4496634937727777e-14</v>
       </c>
-      <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N3" s="12">
         <v>0</v>
@@ -725,13 +869,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K4" s="11">
+        <v>7.5629553730507817e-15</v>
+      </c>
+      <c r="L4" s="7">
         <v>1.256768470677329e-13</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N4" s="8">
         <v>0</v>
@@ -747,14 +894,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K5" s="11">
+        <v>3.0730028109425061e-14</v>
+      </c>
+      <c r="L5" s="11">
         <v>8.628051211960125e-13</v>
       </c>
-      <c r="L5" s="11"/>
       <c r="M5" s="12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
@@ -770,14 +919,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K6" s="11">
+        <v>1.5954201638427647e-13</v>
+      </c>
+      <c r="L6" s="11">
         <v>2.301430870289963e-14</v>
       </c>
-      <c r="L6" s="11"/>
       <c r="M6" s="12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N6" s="12">
         <v>0</v>
@@ -791,14 +942,16 @@
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K7" s="11">
+        <v>2.0515170007130026e-13</v>
+      </c>
+      <c r="L7" s="11">
         <v>1.6301320593364594e-14</v>
       </c>
-      <c r="L7" s="11"/>
       <c r="M7" s="12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N7" s="12">
         <v>0</v>
@@ -814,14 +967,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K8" s="11">
+        <v>9.2057774569796401e-15</v>
+      </c>
+      <c r="L8" s="11">
         <v>1.1282772085767239e-14</v>
       </c>
-      <c r="L8" s="11"/>
       <c r="M8" s="12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N8" s="8">
         <v>0</v>
@@ -837,14 +992,16 @@
         <v>7</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K9" s="11">
+        <v>9.3010213369791265e-14</v>
+      </c>
+      <c r="L9" s="11">
         <v>8.2378709546769083e-15</v>
       </c>
-      <c r="L9" s="11"/>
       <c r="M9" s="12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N9" s="12">
         <v>0</v>
@@ -860,14 +1017,16 @@
         <v>8</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K10" s="11">
+        <v>1.9414431681325009e-14</v>
+      </c>
+      <c r="L10" s="11">
         <v>2.5306730707686528e-14</v>
       </c>
-      <c r="L10" s="11"/>
       <c r="M10" s="12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N10" s="12">
         <v>0</v>
@@ -881,14 +1040,16 @@
         <v>9</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K11" s="11">
+        <v>1.6704440824583009e-13</v>
+      </c>
+      <c r="L11" s="11">
         <v>1.3610266219890567e-14</v>
       </c>
-      <c r="L11" s="11"/>
       <c r="M11" s="12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N11" s="12">
         <v>0</v>
@@ -904,13 +1065,16 @@
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="K12" s="11">
+        <v>5.6764178529426435e-14</v>
+      </c>
+      <c r="L12" s="7">
         <v>9.0134900185126032e-15</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N12" s="12">
         <v>0</v>
@@ -926,13 +1090,16 @@
         <v>11</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="K13" s="11">
+        <v>119.12617354837414</v>
+      </c>
+      <c r="L13" s="7">
         <v>2023.3898718339406</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N13" s="12">
         <v>362267.80780666304</v>
@@ -948,14 +1115,16 @@
         <v>12</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="K14" s="11">
+        <v>2.6100509358408456e-13</v>
+      </c>
+      <c r="L14" s="11">
         <v>1.5431056209030043e-14</v>
       </c>
-      <c r="L14" s="11"/>
       <c r="M14" s="12" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="N14" s="12">
         <v>0</v>
@@ -969,13 +1138,16 @@
         <v>13</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K15" s="11">
+        <v>257.28325368494859</v>
+      </c>
+      <c r="L15" s="7">
         <v>3206.9740418961965</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N15" s="8">
         <v>0.056328598761410831</v>
@@ -991,14 +1163,16 @@
         <v>14</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="K16" s="11">
+        <v>7.4756481917114111e-15</v>
+      </c>
+      <c r="L16" s="11">
         <v>1.2691145212576485e-13</v>
       </c>
-      <c r="L16" s="11"/>
       <c r="M16" s="12" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N16" s="12">
         <v>0</v>
@@ -1012,13 +1186,16 @@
         <v>15</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7">
+        <v>2026484.9931334213</v>
+      </c>
+      <c r="L17" s="7">
         <v>22854507.546138924</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="N17" s="12">
         <v>6803010.8300649878</v>
@@ -1034,13 +1211,16 @@
         <v>16</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K18" s="11">
+        <v>1.3578849194999148e-13</v>
+      </c>
+      <c r="L18" s="7">
         <v>7.6897670608061189e-15</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N18" s="12">
         <v>0</v>
@@ -1058,14 +1238,16 @@
         <v>17</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K19" s="11">
+        <v>9.0190764886466633e-14</v>
+      </c>
+      <c r="L19" s="11">
         <v>2.1693490979164848e-15</v>
       </c>
-      <c r="L19" s="11"/>
       <c r="M19" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
@@ -1076,14 +1258,16 @@
         <v>18</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K20" s="11">
+        <v>2.648390438889859e-14</v>
+      </c>
+      <c r="L20" s="11">
         <v>7.1775387371884229e-15</v>
       </c>
-      <c r="L20" s="11"/>
       <c r="M20" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N20" s="12">
         <v>0</v>
@@ -1094,14 +1278,16 @@
         <v>19</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K21" s="11">
+        <v>2.9416136577440052e-14</v>
+      </c>
+      <c r="L21" s="11">
         <v>2.4317415137396884e-14</v>
       </c>
-      <c r="L21" s="11"/>
       <c r="M21" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N21" s="12">
         <v>0</v>
@@ -1112,14 +1298,16 @@
         <v>20</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K22" s="11">
+        <v>8.2951976814223415e-15</v>
+      </c>
+      <c r="L22" s="11">
         <v>1.0838647812643388e-14</v>
       </c>
-      <c r="L22" s="11"/>
       <c r="M22" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
@@ -1130,14 +1318,16 @@
         <v>21</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K23" s="11">
+        <v>1.4621580067011612e-14</v>
+      </c>
+      <c r="L23" s="11">
         <v>2.7111665280051144e-14</v>
       </c>
-      <c r="L23" s="11"/>
       <c r="M23" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N23" s="12">
         <v>0</v>
@@ -1148,14 +1338,16 @@
         <v>22</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K24" s="11">
+        <v>1.5574075993144661e-13</v>
+      </c>
+      <c r="L24" s="11">
         <v>9.7730111367010243e-15</v>
       </c>
-      <c r="L24" s="11"/>
       <c r="M24" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N24" s="12">
         <v>0</v>
@@ -1166,14 +1358,16 @@
         <v>23</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K25" s="11">
+        <v>7.9050381287564743e-15</v>
+      </c>
+      <c r="L25" s="11">
         <v>1.2892386080407459e-13</v>
       </c>
-      <c r="L25" s="11"/>
       <c r="M25" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N25" s="12">
         <v>0</v>
@@ -1184,14 +1378,16 @@
         <v>24</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K26" s="11">
+        <v>7.6228796273744083e-14</v>
+      </c>
+      <c r="L26" s="11">
         <v>7.4545308646820637e-15</v>
       </c>
-      <c r="L26" s="11"/>
       <c r="M26" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N26" s="12">
         <v>0</v>
@@ -1202,14 +1398,16 @@
         <v>25</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K27" s="11">
+        <v>1.2801169904993919e-14</v>
+      </c>
+      <c r="L27" s="11">
         <v>8.5260459205595687e-15</v>
       </c>
-      <c r="L27" s="11"/>
       <c r="M27" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N27" s="12">
         <v>0</v>
@@ -1220,13 +1418,16 @@
         <v>26</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K28" s="11">
+        <v>9.1889259172768277e-15</v>
+      </c>
+      <c r="L28" s="7">
         <v>1.6075401425916183e-14</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N28" s="12">
         <v>0</v>
@@ -1237,14 +1438,16 @@
         <v>27</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K29" s="11">
+        <v>2.6677354285044655e-14</v>
+      </c>
+      <c r="L29" s="11">
         <v>1.0610886818616028e-14</v>
       </c>
-      <c r="L29" s="11"/>
       <c r="M29" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N29" s="8">
         <v>0</v>
@@ -1255,13 +1458,16 @@
         <v>28</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K30" s="11">
+        <v>8.8789272514539004e-15</v>
+      </c>
+      <c r="L30" s="7">
         <v>1.2092750417232419e-13</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N30" s="12">
         <v>0</v>
@@ -1272,14 +1478,16 @@
         <v>29</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K31" s="11">
+        <v>1.8566588577240502e-13</v>
+      </c>
+      <c r="L31" s="11">
         <v>1.9764841026485167e-14</v>
       </c>
-      <c r="L31" s="11"/>
       <c r="M31" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N31" s="12">
         <v>0</v>
@@ -1290,13 +1498,16 @@
         <v>30</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K32" s="11">
+        <v>1.4012397165874557e-13</v>
+      </c>
+      <c r="L32" s="7">
         <v>8.9873735298940837e-15</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N32" s="12">
         <v>0</v>
@@ -1307,14 +1518,16 @@
         <v>31</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K33" s="11">
+        <v>3.456786874695071e-15</v>
+      </c>
+      <c r="L33" s="11">
         <v>1.8613947212219448e-15</v>
       </c>
-      <c r="L33" s="11"/>
       <c r="M33" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N33" s="12">
         <v>0</v>
@@ -1325,13 +1538,16 @@
         <v>32</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K34" s="11">
+        <v>1.3100158359969221e-13</v>
+      </c>
+      <c r="L34" s="7">
         <v>1.3975096658019139e-13</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N34" s="12">
         <v>0</v>
@@ -1342,13 +1558,16 @@
         <v>33</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K35" s="11">
+        <v>5.3790859989403629e-15</v>
+      </c>
+      <c r="L35" s="7">
         <v>7.9611147036336829e-14</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N35" s="12">
         <v>0</v>
@@ -1359,14 +1578,16 @@
         <v>34</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K36" s="11">
+        <v>1.3199988640679719e-14</v>
+      </c>
+      <c r="L36" s="11">
         <v>5.1306423612351578e-15</v>
       </c>
-      <c r="L36" s="11"/>
       <c r="M36" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N36" s="12">
         <v>0</v>
@@ -1377,13 +1598,16 @@
         <v>35</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K37" s="11">
+        <v>2.0899759329626967e-13</v>
+      </c>
+      <c r="L37" s="7">
         <v>1.54963461924318e-14</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N37" s="12">
         <v>0</v>
@@ -1394,14 +1618,16 @@
         <v>36</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K38" s="11">
+        <v>7.7645058320543126e-13</v>
+      </c>
+      <c r="L38" s="11">
         <v>1.5897929193676839e-14</v>
       </c>
-      <c r="L38" s="11"/>
       <c r="M38" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N38" s="8">
         <v>0</v>
@@ -1412,14 +1638,16 @@
         <v>37</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K39" s="11">
+        <v>8.1387942853491205e-15</v>
+      </c>
+      <c r="L39" s="11">
         <v>1.0252342513414887e-13</v>
       </c>
-      <c r="L39" s="11"/>
       <c r="M39" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N39" s="12">
         <v>0</v>
@@ -1437,14 +1665,16 @@
         <v>38</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K40" s="11">
+        <v>8.1330087265350174e-14</v>
+      </c>
+      <c r="L40" s="11">
         <v>7.5991514519120539e-15</v>
       </c>
-      <c r="L40" s="11"/>
       <c r="M40" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N40" s="12">
         <v>0</v>
@@ -1462,14 +1692,16 @@
         <v>39</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K41" s="11">
+        <v>1.6430706309113894e-13</v>
+      </c>
+      <c r="L41" s="11">
         <v>2.9455926221528926e-14</v>
       </c>
-      <c r="L41" s="11"/>
       <c r="M41" s="12" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N41" s="12">
         <v>0</v>
@@ -1487,13 +1719,16 @@
         <v>40</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="K42" s="11">
+        <v>24324.247627370452</v>
+      </c>
+      <c r="L42" s="7">
         <v>220954.26564809843</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="N42" s="12">
         <v>75223.803854670507</v>
@@ -1508,10 +1743,10 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="J43" s="0" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" x14ac:dyDescent="0.3">
@@ -1563,14 +1798,16 @@
         <v>1</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K45" s="11">
+        <v>7.2037346138503129e-13</v>
+      </c>
+      <c r="L45" s="11">
         <v>7.7035237700235143e-13</v>
       </c>
-      <c r="L45" s="11"/>
       <c r="M45" s="12" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N45" s="8">
         <v>0</v>
@@ -1586,13 +1823,16 @@
         <v>2</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K46" s="11">
+        <v>7.1376087051805481e-13</v>
+      </c>
+      <c r="L46" s="7">
         <v>6.3170381267507916e-13</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N46" s="8">
         <v>0</v>
@@ -1606,13 +1846,16 @@
         <v>3</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K47" s="11">
+        <v>7.3675428794345496e-13</v>
+      </c>
+      <c r="L47" s="7">
         <v>7.8784807088685634e-13</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N47" s="8">
         <v>0</v>
@@ -1628,14 +1871,16 @@
         <v>4</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K48" s="11">
+        <v>4.9959423961629426e-13</v>
+      </c>
+      <c r="L48" s="11">
         <v>5.491076493818878e-13</v>
       </c>
-      <c r="L48" s="11"/>
       <c r="M48" s="12" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N48" s="8">
         <v>0</v>
@@ -1651,14 +1896,16 @@
         <v>5</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K49" s="11">
+        <v>5.7985594767997931e-13</v>
+      </c>
+      <c r="L49" s="11">
         <v>6.3047478064386722e-13</v>
       </c>
-      <c r="L49" s="11"/>
       <c r="M49" s="12" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N49" s="8">
         <v>0</v>
@@ -1672,13 +1919,16 @@
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="K50" s="11">
+        <v>507.18468078039371</v>
+      </c>
+      <c r="L50" s="7">
         <v>7040.5415997155305</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N50" s="8">
         <v>16183.739845807808</v>
@@ -1692,14 +1942,16 @@
         <v>7</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="K51" s="11">
+        <v>7.6466273318458225e-13</v>
+      </c>
+      <c r="L51" s="11">
         <v>7.610759945257655e-13</v>
       </c>
-      <c r="L51" s="11"/>
       <c r="M51" s="12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N51" s="8">
         <v>0</v>
@@ -1715,14 +1967,16 @@
         <v>8</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="K52" s="11">
+        <v>1.1034773944422936e-12</v>
+      </c>
+      <c r="L52" s="11">
         <v>2.6574961640943282e-13</v>
       </c>
-      <c r="L52" s="11"/>
       <c r="M52" s="12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N52" s="8">
         <v>0</v>
@@ -1738,14 +1992,16 @@
         <v>9</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="K53" s="11">
+        <v>7.0659598191658493e-13</v>
+      </c>
+      <c r="L53" s="11">
         <v>8.2950302051863047e-13</v>
       </c>
-      <c r="L53" s="11"/>
       <c r="M53" s="12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N53" s="8">
         <v>0</v>
@@ -1759,14 +2015,16 @@
         <v>10</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="K54" s="11">
+        <v>4.4810667473857164e-13</v>
+      </c>
+      <c r="L54" s="11">
         <v>4.577079868800642e-13</v>
       </c>
-      <c r="L54" s="11"/>
       <c r="M54" s="12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N54" s="8">
         <v>0</v>
@@ -1782,14 +2040,16 @@
         <v>11</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="K55" s="11">
+        <v>8.4711979707050393e-13</v>
+      </c>
+      <c r="L55" s="11">
         <v>7.463145011637939e-13</v>
       </c>
-      <c r="L55" s="11"/>
       <c r="M55" s="12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N55" s="8">
         <v>0</v>
@@ -1805,14 +2065,16 @@
         <v>12</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="K56" s="11">
+        <v>3.5369580801935932e-14</v>
+      </c>
+      <c r="L56" s="11">
         <v>1.0149812150902103e-12</v>
       </c>
-      <c r="L56" s="11"/>
       <c r="M56" s="12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N56" s="8">
         <v>0</v>
@@ -1826,13 +2088,16 @@
         <v>13</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="K57" s="11">
+        <v>182180.46727309033</v>
+      </c>
+      <c r="L57" s="7">
         <v>1880653.3267412754</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="N57" s="8">
         <v>561276.16102993197</v>
@@ -1848,14 +2113,16 @@
         <v>14</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K58" s="11">
+        <v>6.7040790048868014e-13</v>
+      </c>
+      <c r="L58" s="11">
         <v>6.8204960689226604e-13</v>
       </c>
-      <c r="L58" s="11"/>
       <c r="M58" s="12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N58" s="8">
         <v>0</v>
@@ -1871,14 +2138,16 @@
         <v>15</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K59" s="11">
+        <v>6.0129560093718731e-13</v>
+      </c>
+      <c r="L59" s="11">
         <v>7.2682941145152445e-13</v>
       </c>
-      <c r="L59" s="11"/>
       <c r="M59" s="12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N59" s="8">
         <v>0</v>
@@ -1894,14 +2163,16 @@
         <v>16</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K60" s="11">
+        <v>6.2726705883880726e-13</v>
+      </c>
+      <c r="L60" s="11">
         <v>1.9401384699771899e-13</v>
       </c>
-      <c r="L60" s="11"/>
       <c r="M60" s="12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N60" s="8">
         <v>0</v>
@@ -1919,13 +2190,16 @@
         <v>17</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K61" s="11">
+        <v>6.021788113141973e-13</v>
+      </c>
+      <c r="L61" s="7">
         <v>6.0174549475063203e-13</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N61" s="8">
         <v>0</v>
@@ -1943,14 +2217,16 @@
         <v>18</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K62" s="11">
+        <v>7.4860959749886528e-13</v>
+      </c>
+      <c r="L62" s="11">
         <v>4.978928785162988e-13</v>
       </c>
-      <c r="L62" s="11"/>
       <c r="M62" s="12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N62" s="8">
         <v>0</v>
@@ -1968,14 +2244,16 @@
         <v>19</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K63" s="11">
+        <v>1.1648709510204547e-12</v>
+      </c>
+      <c r="L63" s="11">
         <v>2.4994809643292081e-13</v>
       </c>
-      <c r="L63" s="11"/>
       <c r="M63" s="12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N63" s="8">
         <v>0</v>
@@ -1993,13 +2271,16 @@
         <v>20</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K64" s="11">
+        <v>7.4649124112965065e-13</v>
+      </c>
+      <c r="L64" s="7">
         <v>7.8205766742932302e-13</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N64" s="12">
         <v>0</v>
@@ -2017,14 +2298,16 @@
         <v>21</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K65" s="11">
+        <v>4.1694498546683538e-13</v>
+      </c>
+      <c r="L65" s="11">
         <v>4.4653413009434617e-13</v>
       </c>
-      <c r="L65" s="11"/>
       <c r="M65" s="12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N65" s="8">
         <v>0</v>
@@ -2042,14 +2325,16 @@
         <v>22</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K66" s="11">
+        <v>9.0249633781834028e-13</v>
+      </c>
+      <c r="L66" s="11">
         <v>2.1652417885799416e-13</v>
       </c>
-      <c r="L66" s="11"/>
       <c r="M66" s="12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N66" s="8">
         <v>0</v>
@@ -2067,14 +2352,16 @@
         <v>23</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K67" s="11">
+        <v>6.6976987522851411e-13</v>
+      </c>
+      <c r="L67" s="11">
         <v>8.0072607048776179e-13</v>
       </c>
-      <c r="L67" s="11"/>
       <c r="M67" s="12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N67" s="8">
         <v>0</v>
@@ -2092,14 +2379,16 @@
         <v>24</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K68" s="11">
+        <v>4.0862190971929002e-14</v>
+      </c>
+      <c r="L68" s="11">
         <v>2.4478737200997706e-13</v>
       </c>
-      <c r="L68" s="11"/>
       <c r="M68" s="12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N68" s="8">
         <v>0</v>
@@ -2117,14 +2406,16 @@
         <v>25</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K69" s="11">
+        <v>7.8542634007608814e-13</v>
+      </c>
+      <c r="L69" s="11">
         <v>1.1356367942070199e-12</v>
       </c>
-      <c r="L69" s="11"/>
       <c r="M69" s="12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N69" s="8">
         <v>0</v>
@@ -2142,14 +2433,16 @@
         <v>26</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K70" s="11">
+        <v>1.0638562177438502e-12</v>
+      </c>
+      <c r="L70" s="11">
         <v>3.065914585215002e-13</v>
       </c>
-      <c r="L70" s="11"/>
       <c r="M70" s="12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N70" s="8">
         <v>0</v>
@@ -2167,13 +2460,16 @@
         <v>27</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K71" s="11">
+        <v>7637.6991390811454</v>
+      </c>
+      <c r="L71" s="7">
         <v>79522.056875393217</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="N71" s="8">
         <v>17650.354882095773</v>
@@ -2191,14 +2487,16 @@
         <v>28</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K72" s="11">
+        <v>7.909147068600869e-13</v>
+      </c>
+      <c r="L72" s="11">
         <v>7.9897810916176564e-13</v>
       </c>
-      <c r="L72" s="11"/>
       <c r="M72" s="12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N72" s="8">
         <v>0</v>
@@ -2216,14 +2514,16 @@
         <v>29</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K73" s="11">
+        <v>3.2398084263219897e-14</v>
+      </c>
+      <c r="L73" s="11">
         <v>1.7789257729808056e-12</v>
       </c>
-      <c r="L73" s="11"/>
       <c r="M73" s="12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N73" s="8">
         <v>0</v>
@@ -2241,14 +2541,16 @@
         <v>30</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K74" s="11">
+        <v>7.1802338319466803e-13</v>
+      </c>
+      <c r="L74" s="11">
         <v>7.94536928003823e-13</v>
       </c>
-      <c r="L74" s="11"/>
       <c r="M74" s="12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N74" s="8">
         <v>0</v>
@@ -2266,14 +2568,16 @@
         <v>31</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K75" s="11">
+        <v>3.4018457186778619e-14</v>
+      </c>
+      <c r="L75" s="11">
         <v>1.2696072924752207e-12</v>
       </c>
-      <c r="L75" s="11"/>
       <c r="M75" s="12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N75" s="8">
         <v>0</v>
@@ -2291,14 +2595,16 @@
         <v>32</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K76" s="11">
+        <v>8.0828404823194888e-13</v>
+      </c>
+      <c r="L76" s="11">
         <v>9.0980972087072244e-13</v>
       </c>
-      <c r="L76" s="11"/>
       <c r="M76" s="12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N76" s="8">
         <v>0</v>
@@ -2316,14 +2622,16 @@
         <v>33</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K77" s="11">
+        <v>1.3034034905521061e-12</v>
+      </c>
+      <c r="L77" s="11">
         <v>1.3453779214764615e-12</v>
       </c>
-      <c r="L77" s="11"/>
       <c r="M77" s="12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N77" s="8">
         <v>0</v>
@@ -2341,14 +2649,16 @@
         <v>34</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K78" s="11">
+        <v>2.7185631664978005e-14</v>
+      </c>
+      <c r="L78" s="11">
         <v>1.4881187728563429e-12</v>
       </c>
-      <c r="L78" s="11"/>
       <c r="M78" s="12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N78" s="8">
         <v>0</v>
@@ -2366,14 +2676,16 @@
         <v>35</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K79" s="11">
+        <v>7.8433449054914719e-13</v>
+      </c>
+      <c r="L79" s="11">
         <v>4.0732596866276752e-13</v>
       </c>
-      <c r="L79" s="11"/>
       <c r="M79" s="12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N79" s="8">
         <v>0</v>
@@ -2391,13 +2703,16 @@
         <v>36</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="K80" s="11">
+        <v>145980.70733075615</v>
+      </c>
+      <c r="L80" s="7">
         <v>2115839.9462936632</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="N80" s="8">
         <v>565390.28256819642</v>
@@ -2415,14 +2730,16 @@
         <v>37</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="K81" s="11">
+        <v>6.2400066463072814e-13</v>
+      </c>
+      <c r="L81" s="11">
         <v>7.7883842512731982e-13</v>
       </c>
-      <c r="L81" s="11"/>
       <c r="M81" s="12" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N81" s="8">
         <v>0</v>
@@ -2440,14 +2757,16 @@
         <v>38</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="K82" s="11">
+        <v>1.0388274961039483e-12</v>
+      </c>
+      <c r="L82" s="11">
         <v>1.4072261671970773e-12</v>
       </c>
-      <c r="L82" s="11"/>
       <c r="M82" s="12" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N82" s="8">
         <v>0</v>
@@ -2465,14 +2784,16 @@
         <v>39</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="K83" s="11">
+        <v>4.1805665910235445e-13</v>
+      </c>
+      <c r="L83" s="11">
         <v>4.0304646022409854e-13</v>
       </c>
-      <c r="L83" s="11"/>
       <c r="M83" s="12" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N83" s="8">
         <v>0</v>
@@ -2490,14 +2811,16 @@
         <v>40</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="K84" s="11">
+        <v>1.3024454659599081e-12</v>
+      </c>
+      <c r="L84" s="11">
         <v>1.2931914781020962e-12</v>
       </c>
-      <c r="L84" s="11"/>
       <c r="M84" s="12" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N84" s="8">
         <v>0</v>
@@ -2512,10 +2835,10 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="J85" s="0" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" x14ac:dyDescent="0.3">
